--- a/description_year_Rivulidae.xlsx
+++ b/description_year_Rivulidae.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobiosmac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15F8B4C-3DDF-3549-B4D3-352AC021B2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68255A4-4E72-B24A-A086-141834F9BA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="500" windowWidth="28040" windowHeight="15560" xr2:uid="{A3913A72-DE35-6F47-811C-995F55A87FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Austrolebias cyaneus (Amato, 1987)</t>
   </si>
@@ -224,6 +227,18 @@
   </si>
   <si>
     <t>description_year</t>
+  </si>
+  <si>
+    <t>Austrolebias accorsii Nielsen &amp; Pillet, 2015</t>
+  </si>
+  <si>
+    <t>Austrolebias ayoreode Drawart &amp; Ergueta, 2024</t>
+  </si>
+  <si>
+    <t>Trigonectes aplocheiloides Huber, 1995</t>
+  </si>
+  <si>
+    <t>Titanolebias monstrosus (Huber, 1995)</t>
   </si>
 </sst>
 </file>
@@ -627,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7F7D57-3DE3-7F47-AA9E-1973524F8CAB}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,10 +664,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1863</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2024</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -665,39 +680,39 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>2005</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>1949</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>60</v>
+      <c r="A6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>2004</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>1881</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>2021</v>
@@ -705,170 +720,170 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>2001</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>49</v>
+      <c r="A10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="2">
-        <v>1965</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
-        <v>1987</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>1881</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
+      <c r="A15" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B15" s="2">
-        <v>1965</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
+      <c r="A16" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="2">
-        <v>2001</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
+      <c r="A17" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B17" s="2">
-        <v>1912</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="2">
-        <v>2001</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
+      <c r="A19" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B19" s="2">
-        <v>2021</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
+      <c r="A20" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B20" s="2">
-        <v>2004</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2">
-        <v>1995</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
+      <c r="A22" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>1965</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>1924</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>1974</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
+      <c r="A25" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="2">
-        <v>1904</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>57</v>
+      <c r="A26" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B26" s="2">
-        <v>1998</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2">
-        <v>1995</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2">
-        <v>1912</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -880,107 +895,107 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>41</v>
+      <c r="A31" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B31" s="2">
-        <v>2014</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2">
-        <v>1973</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2">
-        <v>2023</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
+      <c r="A34" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B34" s="2">
-        <v>2016</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>20</v>
+      <c r="A35" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B35" s="2">
-        <v>2003</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
+      <c r="A36" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B36" s="2">
-        <v>2023</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
+      <c r="A37" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B37" s="2">
-        <v>2006</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2">
-        <v>2008</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2">
-        <v>2010</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>2023</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2">
-        <v>2016</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>51</v>
+      <c r="A42" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B42" s="2">
-        <v>2012</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2">
-        <v>2004</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -993,90 +1008,90 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2">
-        <v>1988</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B46" s="2">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>2014</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>11</v>
+      <c r="A48" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B48" s="2">
-        <v>1942</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>1935</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>28</v>
+      <c r="A50" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B50" s="2">
-        <v>2019</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2">
-        <v>1896</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B52" s="2">
-        <v>2019</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B53" s="2">
-        <v>1988</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B54" s="2">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2">
-        <v>2009</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1088,54 +1103,90 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>59</v>
+      <c r="A57" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>1989</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B58" s="2">
-        <v>1895</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B59" s="2">
-        <v>1940</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>56</v>
+      <c r="A60" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B60" s="2">
-        <v>1959</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>50</v>
+      <c r="A61" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B61" s="2">
-        <v>2013</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B63" s="2">
         <v>1891</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1863</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A66" xr:uid="{2A7F7D57-3DE3-7F47-AA9E-1973524F8CAB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B66">
+    <sortCondition descending="1" ref="B1:B66"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>